--- a/Congreso_Resultados.xlsx
+++ b/Congreso_Resultados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1112\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7947CF8A-3B75-46C9-A6BA-B420E7CF6F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{1B2E1268-9E92-40C8-A9F9-572889449310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98568CFC-A90E-410A-81BE-29C5251B002A}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="254" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>No.</t>
   </si>
@@ -41,13 +41,16 @@
     <t>Algoritmo</t>
   </si>
   <si>
-    <t>Precisión</t>
-  </si>
-  <si>
-    <t>Velocidad</t>
-  </si>
-  <si>
-    <t>Vel. sin ext.</t>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>tiempo</t>
   </si>
   <si>
     <t>Ridge regression and classification</t>
@@ -68,27 +71,49 @@
     <t>Classification, Decision Trees</t>
   </si>
   <si>
-    <t>Voting Classifier</t>
+    <t>Voting Classifier (Ensemble)</t>
   </si>
   <si>
     <t>Classification, Neural network models</t>
   </si>
   <si>
-    <t>Máxima precisión</t>
-  </si>
-  <si>
-    <t>Máxima velocidad</t>
+    <t>valores máximos</t>
+  </si>
+  <si>
+    <t>donde:</t>
+  </si>
+  <si>
+    <t>precision: precisión de las predicciones positivas</t>
+  </si>
+  <si>
+    <t>recall: fracción de predicciones positivas correctamente identificadas</t>
+  </si>
+  <si>
+    <t>f1-score: media armónica de precision y recall</t>
+  </si>
+  <si>
+    <t>tiempo: tiempo de proceso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,32 +124,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -133,13 +138,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,19 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,170 +569,251 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.64105500000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.1638139999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.60787599999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.53039199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.89858799999999994</v>
-      </c>
-      <c r="D2">
-        <v>2.9448999999999999E-2</v>
-      </c>
-      <c r="E2">
-        <f>D2</f>
-        <v>2.9448999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F6" s="1">
+        <v>159.859061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0.89882399999999996</v>
-      </c>
-      <c r="D3">
-        <v>1.6528649999999998</v>
-      </c>
-      <c r="E3">
-        <f>D3</f>
-        <v>1.6528649999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.58629799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0.84682399999999991</v>
-      </c>
-      <c r="D4">
-        <v>3.6899000000000001E-2</v>
-      </c>
-      <c r="E4">
-        <f>D4</f>
-        <v>3.6899000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13.058083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>0.97764699999999993</v>
-      </c>
-      <c r="D5">
-        <v>1.8952E-2</v>
-      </c>
-      <c r="E5">
-        <f>D5</f>
-        <v>1.8952E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0.962588</v>
-      </c>
-      <c r="D6">
-        <v>176.750045</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>6.6824999999999996E-2</v>
-      </c>
-      <c r="E7">
-        <f>D7</f>
-        <v>6.6824999999999996E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0.95952899999999997</v>
-      </c>
-      <c r="D8">
-        <v>7.2735900000000004</v>
-      </c>
-      <c r="E8">
-        <f>D8</f>
-        <v>7.2735900000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.33623500000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9.2974000000000001E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <f>D9</f>
-        <v>9.2974000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
-        <f>MAX(C2:C9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" t="s">
+      <c r="C9" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.08243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
-        <f>MIN(D2:D9)</f>
-        <v>1.8952E-2</v>
-      </c>
+      <c r="C11" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="F11" s="1">
+        <v>159.859061</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">

--- a/Congreso_Resultados.xlsx
+++ b/Congreso_Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1112\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{1B2E1268-9E92-40C8-A9F9-572889449310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98568CFC-A90E-410A-81BE-29C5251B002A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3F56727-F37A-4D2B-A855-E9652A9E747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" tabRatio="254" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>Algoritmo</t>
+    <t>no.</t>
+  </si>
+  <si>
+    <t>algoritmo</t>
   </si>
   <si>
     <t>precision</t>
@@ -53,52 +53,55 @@
     <t>tiempo</t>
   </si>
   <si>
-    <t>Ridge regression and classification</t>
-  </si>
-  <si>
-    <t>Classification, Support Vector Machines</t>
-  </si>
-  <si>
-    <t>Classification, Stochastic Gradient Descent</t>
-  </si>
-  <si>
-    <t>Nearest Neighbours Classification</t>
-  </si>
-  <si>
-    <t>Gaussian Process Classification</t>
-  </si>
-  <si>
-    <t>Classification, Decision Trees</t>
-  </si>
-  <si>
-    <t>Voting Classifier (Ensemble)</t>
-  </si>
-  <si>
-    <t>Classification, Neural network models</t>
-  </si>
-  <si>
-    <t>valores máximos</t>
-  </si>
-  <si>
-    <t>donde:</t>
-  </si>
-  <si>
-    <t>precision: precisión de las predicciones positivas</t>
-  </si>
-  <si>
-    <t>recall: fracción de predicciones positivas correctamente identificadas</t>
-  </si>
-  <si>
-    <t>f1-score: media armónica de precision y recall</t>
-  </si>
-  <si>
-    <t>tiempo: tiempo de proceso</t>
+    <t>Ridge regression and classification </t>
+  </si>
+  <si>
+    <t>Classification, Support Vector Machines </t>
+  </si>
+  <si>
+    <t>Classification, Stochastic Gradient Descent </t>
+  </si>
+  <si>
+    <t>Nearest Neighbours Classification </t>
+  </si>
+  <si>
+    <t>Gaussian Process Classification </t>
+  </si>
+  <si>
+    <t>Classification, Decision Trees </t>
+  </si>
+  <si>
+    <t>Voting Classifier (Ensemble) </t>
+  </si>
+  <si>
+    <t>Classification, Neural network models </t>
+  </si>
+  <si>
+    <t>valores máximos </t>
+  </si>
+  <si>
+    <t>donde: </t>
+  </si>
+  <si>
+    <t>precision: precisión de las predicciones positivas </t>
+  </si>
+  <si>
+    <t>recall: fracción de predicciones positivas correctamente identificadas </t>
+  </si>
+  <si>
+    <t>f1-score: media armónica de precision y recall (F measure) </t>
+  </si>
+  <si>
+    <t>tiempo: tiempo de proceso </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -136,11 +139,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +548,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="C2" sqref="C2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -580,17 +585,17 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.64105500000000004</v>
+      <c r="C2" s="3">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.9737</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -600,17 +605,17 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.1638139999999999</v>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>66.833500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -620,17 +625,17 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.60787599999999997</v>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.3036000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -640,17 +645,17 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.53039199999999997</v>
+      <c r="C5" s="3">
+        <v>0.2727</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1429</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.5404</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -660,17 +665,17 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="F6" s="1">
-        <v>159.859061</v>
+      <c r="C6" s="3">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.2267000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -680,17 +685,17 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.58629799999999999</v>
+      <c r="C7" s="3">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>24.454999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -700,17 +705,17 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>0.9</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="F8" s="1">
-        <v>13.058083</v>
+      <c r="D8" s="3">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11.8827</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -720,43 +725,43 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.08243</v>
+      <c r="C9" s="3">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.3255999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="F11" s="1">
-        <v>159.859061</v>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="F11" s="3">
+        <v>66.833500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -771,37 +776,37 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
@@ -811,8 +816,10 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A10:B10"/>
+  <mergeCells count="3">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
